--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H2">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I2">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J2">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>2.948770488013777</v>
+        <v>0.1079101379655556</v>
       </c>
       <c r="R2">
-        <v>26.538934392124</v>
+        <v>0.97119124169</v>
       </c>
       <c r="S2">
-        <v>0.58010688339605</v>
+        <v>0.02756556978277205</v>
       </c>
       <c r="T2">
-        <v>0.6290690980621042</v>
+        <v>0.03343799279124774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H3">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I3">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J3">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>0.352918263474</v>
+        <v>0.03044774358</v>
       </c>
       <c r="R3">
-        <v>3.176264371266</v>
+        <v>0.27402969222</v>
       </c>
       <c r="S3">
-        <v>0.06942904330792789</v>
+        <v>0.007777854946773801</v>
       </c>
       <c r="T3">
-        <v>0.07528899742983182</v>
+        <v>0.009434807975713796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H4">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I4">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J4">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>0.3111199449971667</v>
+        <v>0.0198279364</v>
       </c>
       <c r="R4">
-        <v>1.866719669983</v>
+        <v>0.1189676184</v>
       </c>
       <c r="S4">
-        <v>0.06120612722769952</v>
+        <v>0.005065032579765844</v>
       </c>
       <c r="T4">
-        <v>0.04424803354122207</v>
+        <v>0.004096040198559456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.114565</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H5">
-        <v>0.22913</v>
+        <v>0.13889</v>
       </c>
       <c r="I5">
-        <v>0.1517383052302134</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J5">
-        <v>0.1065480082176773</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.495057333333333</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>16.485172</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.8161989011161211</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P5">
-        <v>0.8403205285996808</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q5">
-        <v>0.6295412433933333</v>
+        <v>0.002506053998888889</v>
       </c>
       <c r="R5">
-        <v>3.77724746036</v>
+        <v>0.02255448599</v>
       </c>
       <c r="S5">
-        <v>0.1238486379861227</v>
+        <v>0.0006401697531682974</v>
       </c>
       <c r="T5">
-        <v>0.08953447858672174</v>
+        <v>0.0007765481272581822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H6">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I6">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J6">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.657666</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N6">
-        <v>1.972998</v>
+        <v>6.992521</v>
       </c>
       <c r="O6">
-        <v>0.09768528951377062</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P6">
-        <v>0.1005722428790014</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q6">
-        <v>0.07534550529</v>
+        <v>1.250780978300778</v>
       </c>
       <c r="R6">
-        <v>0.4520730317400001</v>
+        <v>11.257028804707</v>
       </c>
       <c r="S6">
-        <v>0.01482260027674229</v>
+        <v>0.3195111320432132</v>
       </c>
       <c r="T6">
-        <v>0.01071577216074208</v>
+        <v>0.3875780915895141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H7">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I7">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J7">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5797745</v>
+        <v>0.657666</v>
       </c>
       <c r="N7">
-        <v>1.159549</v>
+        <v>1.972998</v>
       </c>
       <c r="O7">
-        <v>0.08611580937010824</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P7">
-        <v>0.0591072285213179</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q7">
-        <v>0.0664218655925</v>
+        <v>0.352918263474</v>
       </c>
       <c r="R7">
-        <v>0.26568746237</v>
+        <v>3.176264371266</v>
       </c>
       <c r="S7">
-        <v>0.01306706696734835</v>
+        <v>0.09015272524730288</v>
       </c>
       <c r="T7">
-        <v>0.006297757470213512</v>
+        <v>0.1093583844152814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1038296666666667</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H8">
-        <v>0.311489</v>
+        <v>1.609867</v>
       </c>
       <c r="I8">
-        <v>0.1375196408381091</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J8">
-        <v>0.1448458627491646</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.495057333333333</v>
+        <v>0.42828</v>
       </c>
       <c r="N8">
-        <v>16.485172</v>
+        <v>0.85656</v>
       </c>
       <c r="O8">
-        <v>0.8161989011161211</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P8">
-        <v>0.8403205285996808</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q8">
-        <v>0.570549971234222</v>
+        <v>0.22982461292</v>
       </c>
       <c r="R8">
-        <v>5.134949741107999</v>
+        <v>1.37894767752</v>
       </c>
       <c r="S8">
-        <v>0.1122433797339483</v>
+        <v>0.0587085377211455</v>
       </c>
       <c r="T8">
-        <v>0.1217169519508548</v>
+        <v>0.04747699579764068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.5366223333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.609867</v>
+      </c>
+      <c r="I9">
+        <v>0.4757925704024297</v>
+      </c>
+      <c r="J9">
+        <v>0.5534144020636843</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.1038296666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.311489</v>
-      </c>
-      <c r="I9">
-        <v>0.1375196408381091</v>
-      </c>
-      <c r="J9">
-        <v>0.1448458627491646</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>0.657666</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N9">
-        <v>1.972998</v>
+        <v>0.162391</v>
       </c>
       <c r="O9">
-        <v>0.09768528951377062</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P9">
-        <v>0.1005722428790014</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q9">
-        <v>0.06828524155799999</v>
+        <v>0.02904754577744444</v>
       </c>
       <c r="R9">
-        <v>0.6145671740219999</v>
+        <v>0.261427911997</v>
       </c>
       <c r="S9">
-        <v>0.01343364592910044</v>
+        <v>0.007420175390768142</v>
       </c>
       <c r="T9">
-        <v>0.01456747328842748</v>
+        <v>0.009000930261248095</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1033,46 +1036,728 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1038296666666667</v>
+        <v>0.02325633333333333</v>
       </c>
       <c r="H10">
-        <v>0.311489</v>
+        <v>0.069769</v>
       </c>
       <c r="I10">
-        <v>0.1375196408381091</v>
+        <v>0.02062007100239157</v>
       </c>
       <c r="J10">
-        <v>0.1448458627491646</v>
+        <v>0.0239840740990288</v>
       </c>
       <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.330840333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.992521</v>
+      </c>
+      <c r="O10">
+        <v>0.6715345129768794</v>
+      </c>
+      <c r="P10">
+        <v>0.7003397275969581</v>
+      </c>
+      <c r="Q10">
+        <v>0.05420679973877778</v>
+      </c>
+      <c r="R10">
+        <v>0.487861197649</v>
+      </c>
+      <c r="S10">
+        <v>0.0138470893381397</v>
+      </c>
+      <c r="T10">
+        <v>0.01679699992117908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02325633333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.069769</v>
+      </c>
+      <c r="I11">
+        <v>0.02062007100239157</v>
+      </c>
+      <c r="J11">
+        <v>0.0239840740990288</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.657666</v>
+      </c>
+      <c r="N11">
+        <v>1.972998</v>
+      </c>
+      <c r="O11">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P11">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q11">
+        <v>0.015294899718</v>
+      </c>
+      <c r="R11">
+        <v>0.137654097462</v>
+      </c>
+      <c r="S11">
+        <v>0.003907071508254455</v>
+      </c>
+      <c r="T11">
+        <v>0.00473941333182789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02325633333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.069769</v>
+      </c>
+      <c r="I12">
+        <v>0.02062007100239157</v>
+      </c>
+      <c r="J12">
+        <v>0.0239840740990288</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.5797745</v>
-      </c>
-      <c r="N10">
-        <v>1.159549</v>
-      </c>
-      <c r="O10">
-        <v>0.08611580937010824</v>
-      </c>
-      <c r="P10">
-        <v>0.0591072285213179</v>
-      </c>
-      <c r="Q10">
-        <v>0.06019779307683332</v>
-      </c>
-      <c r="R10">
-        <v>0.361186758461</v>
-      </c>
-      <c r="S10">
-        <v>0.01184261517506036</v>
-      </c>
-      <c r="T10">
-        <v>0.008561437509882319</v>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.42828</v>
+      </c>
+      <c r="N12">
+        <v>0.85656</v>
+      </c>
+      <c r="O12">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P12">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q12">
+        <v>0.009960222439999999</v>
+      </c>
+      <c r="R12">
+        <v>0.05976133464</v>
+      </c>
+      <c r="S12">
+        <v>0.002544331903360092</v>
+      </c>
+      <c r="T12">
+        <v>0.002057575265413598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02325633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.069769</v>
+      </c>
+      <c r="I13">
+        <v>0.02062007100239157</v>
+      </c>
+      <c r="J13">
+        <v>0.0239840740990288</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.162391</v>
+      </c>
+      <c r="O13">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P13">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q13">
+        <v>0.001258873075444445</v>
+      </c>
+      <c r="R13">
+        <v>0.011329857679</v>
+      </c>
+      <c r="S13">
+        <v>0.0003215782526373312</v>
+      </c>
+      <c r="T13">
+        <v>0.0003900855806082231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.474576</v>
+      </c>
+      <c r="H14">
+        <v>0.949152</v>
+      </c>
+      <c r="I14">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J14">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.330840333333333</v>
+      </c>
+      <c r="N14">
+        <v>6.992521</v>
+      </c>
+      <c r="O14">
+        <v>0.6715345129768794</v>
+      </c>
+      <c r="P14">
+        <v>0.7003397275969581</v>
+      </c>
+      <c r="Q14">
+        <v>1.106160882032</v>
+      </c>
+      <c r="R14">
+        <v>6.636965292192</v>
+      </c>
+      <c r="S14">
+        <v>0.2825680289127113</v>
+      </c>
+      <c r="T14">
+        <v>0.2285098836042794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.474576</v>
+      </c>
+      <c r="H15">
+        <v>0.949152</v>
+      </c>
+      <c r="I15">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J15">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.657666</v>
+      </c>
+      <c r="N15">
+        <v>1.972998</v>
+      </c>
+      <c r="O15">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P15">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q15">
+        <v>0.312112499616</v>
+      </c>
+      <c r="R15">
+        <v>1.872674997696</v>
+      </c>
+      <c r="S15">
+        <v>0.07972892121578493</v>
+      </c>
+      <c r="T15">
+        <v>0.06447596558258117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.474576</v>
+      </c>
+      <c r="H16">
+        <v>0.949152</v>
+      </c>
+      <c r="I16">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J16">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.42828</v>
+      </c>
+      <c r="N16">
+        <v>0.85656</v>
+      </c>
+      <c r="O16">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P16">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q16">
+        <v>0.20325140928</v>
+      </c>
+      <c r="R16">
+        <v>0.81300563712</v>
+      </c>
+      <c r="S16">
+        <v>0.05192043131056854</v>
+      </c>
+      <c r="T16">
+        <v>0.02799168224165242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.474576</v>
+      </c>
+      <c r="H17">
+        <v>0.949152</v>
+      </c>
+      <c r="I17">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J17">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.162391</v>
+      </c>
+      <c r="O17">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P17">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q17">
+        <v>0.025688957072</v>
+      </c>
+      <c r="R17">
+        <v>0.154133742432</v>
+      </c>
+      <c r="S17">
+        <v>0.006562226239029401</v>
+      </c>
+      <c r="T17">
+        <v>0.005306805443756628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.047098</v>
+      </c>
+      <c r="H18">
+        <v>0.141294</v>
+      </c>
+      <c r="I18">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J18">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.330840333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.992521</v>
+      </c>
+      <c r="O18">
+        <v>0.6715345129768794</v>
+      </c>
+      <c r="P18">
+        <v>0.7003397275969581</v>
+      </c>
+      <c r="Q18">
+        <v>0.1097779180193333</v>
+      </c>
+      <c r="R18">
+        <v>0.988001262174</v>
+      </c>
+      <c r="S18">
+        <v>0.02804269290004315</v>
+      </c>
+      <c r="T18">
+        <v>0.03401675969073769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.047098</v>
+      </c>
+      <c r="H19">
+        <v>0.141294</v>
+      </c>
+      <c r="I19">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J19">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.657666</v>
+      </c>
+      <c r="N19">
+        <v>1.972998</v>
+      </c>
+      <c r="O19">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P19">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q19">
+        <v>0.030974753268</v>
+      </c>
+      <c r="R19">
+        <v>0.278772779412</v>
+      </c>
+      <c r="S19">
+        <v>0.007912479205482449</v>
+      </c>
+      <c r="T19">
+        <v>0.009598111873572648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.047098</v>
+      </c>
+      <c r="H20">
+        <v>0.141294</v>
+      </c>
+      <c r="I20">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J20">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.42828</v>
+      </c>
+      <c r="N20">
+        <v>0.85656</v>
+      </c>
+      <c r="O20">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P20">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q20">
+        <v>0.02017113144</v>
+      </c>
+      <c r="R20">
+        <v>0.12102678864</v>
+      </c>
+      <c r="S20">
+        <v>0.005152701514331017</v>
+      </c>
+      <c r="T20">
+        <v>0.004166937171972494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.047098</v>
+      </c>
+      <c r="H21">
+        <v>0.141294</v>
+      </c>
+      <c r="I21">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J21">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.162391</v>
+      </c>
+      <c r="O21">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P21">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q21">
+        <v>0.002549430439333334</v>
+      </c>
+      <c r="R21">
+        <v>0.022944873954</v>
+      </c>
+      <c r="S21">
+        <v>0.0006512502347480841</v>
+      </c>
+      <c r="T21">
+        <v>0.0007899891359551991</v>
       </c>
     </row>
   </sheetData>
